--- a/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
+++ b/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1410" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>編號</t>
   </si>
@@ -106,6 +107,57 @@
   <si>
     <t>ash</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>sulfur</t>
+  </si>
+  <si>
+    <t>dowbleIron</t>
+  </si>
+  <si>
+    <t>dowbleIWood</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>crossbow</t>
+  </si>
+  <si>
+    <t>even_font</t>
+  </si>
+  <si>
+    <t>mouseTrap</t>
+  </si>
+  <si>
+    <t>trap(1)</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>耐久度</t>
+  </si>
+  <si>
+    <t>聲音</t>
   </si>
 </sst>
 </file>
@@ -459,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -847,4 +899,394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
+++ b/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>dowbleIron</t>
   </si>
   <si>
-    <t>dowbleIWood</t>
-  </si>
-  <si>
     <t>hammer</t>
   </si>
   <si>
@@ -158,12 +155,16 @@
   </si>
   <si>
     <t>聲音</t>
+  </si>
+  <si>
+    <t>dowbleWood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -515,9 +516,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -546,7 +547,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -575,7 +576,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -604,7 +605,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,7 +634,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -662,7 +663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -691,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -720,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -749,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -778,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -807,7 +808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -836,7 +837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -865,7 +866,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -906,12 +907,12 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,7 +941,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -969,7 +970,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -998,7 +999,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1054,9 +1055,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1081,9 +1082,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1095,7 +1096,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1110,9 +1111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -1124,7 +1125,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -1139,9 +1140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -1153,7 +1154,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1168,21 +1169,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1197,9 +1198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -1211,7 +1212,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1226,9 +1227,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -1240,24 +1241,24 @@
         <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -1275,13 +1276,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
+++ b/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>編號</t>
   </si>
@@ -121,50 +121,57 @@
     <t>sulfur</t>
   </si>
   <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>crossbow</t>
+  </si>
+  <si>
+    <t>mouseTrap</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>耐久度</t>
+  </si>
+  <si>
+    <t>聲音</t>
+  </si>
+  <si>
     <t>dowbleIron</t>
-  </si>
-  <si>
-    <t>hammer</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>crossbow</t>
-  </si>
-  <si>
-    <t>even_font</t>
-  </si>
-  <si>
-    <t>mouseTrap</t>
-  </si>
-  <si>
-    <t>trap(1)</t>
-  </si>
-  <si>
-    <t>gun</t>
-  </si>
-  <si>
-    <t>ash</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>耐久度</t>
-  </si>
-  <si>
-    <t>聲音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dowbleWood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dowbleWood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>even</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -516,9 +523,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,7 +554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -576,7 +583,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -605,7 +612,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,7 +641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -663,7 +670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -692,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -721,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -750,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -779,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -808,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -837,7 +844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -866,7 +873,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -907,12 +914,12 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,7 +948,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -970,7 +977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1028,9 +1035,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1041,7 +1048,9 @@
       <c r="D5" s="1">
         <v>38</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F5" s="1">
         <v>-1</v>
       </c>
@@ -1055,9 +1064,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1068,7 +1077,9 @@
       <c r="D6" s="1">
         <v>46</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F6" s="1">
         <v>-1</v>
       </c>
@@ -1082,9 +1093,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1096,7 +1107,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1111,9 +1122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -1125,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -1140,9 +1151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -1154,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1169,9 +1180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -1180,10 +1191,10 @@
         <v>42</v>
       </c>
       <c r="D10" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1198,9 +1209,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -1212,7 +1223,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1227,9 +1238,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -1241,7 +1252,7 @@
         <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1">
         <v>-1</v>
@@ -1256,9 +1267,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -1276,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
+++ b/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>編號</t>
   </si>
@@ -156,15 +156,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dowbleWood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>even</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>trape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleIron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleWood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +918,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1041,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1066,7 +1070,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1078,7 +1082,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1">
         <v>-1</v>
@@ -1165,7 +1169,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1194,7 +1198,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>

--- a/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
+++ b/Weapolution/Assets/Resources/TextCsv/ToEditCraftDataBase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>編號</t>
   </si>
@@ -146,14 +146,6 @@
   </si>
   <si>
     <t>聲音</t>
-  </si>
-  <si>
-    <t>dowbleIron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dowbleWood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>even</t>
@@ -918,7 +910,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1033,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1053,7 +1045,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1">
         <v>-1</v>
@@ -1070,7 +1062,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1082,7 +1074,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1">
         <v>-1</v>
@@ -1169,7 +1161,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1198,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
